--- a/special_sections/LTPP_sections/excel_files/ltpp_sections_info.xlsx
+++ b/special_sections/LTPP_sections/excel_files/ltpp_sections_info.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://texastechuniversity-my.sharepoint.com/personal/samuel_alalade_ttu_edu/Documents/Research/PhD/0-7147/Tasks/Task 9/Shared FIles/rpdb/sections_info/special_sections/LTTP_sections/excel_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://texastechuniversity-my.sharepoint.com/personal/samuel_alalade_ttu_edu/Documents/Research/PhD/0-7147/Tasks/Task 9/Shared FIles/rpdb/sections_info/special_sections/LTPP_sections/excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="11_7E9101E8F613C8A648227C7B1B36CCDC7552D82B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A33EE702-8F05-4014-8599-C711651492D5}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="11_7E9101E8F613C8A648227C7B1B36CCDC7552D82B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E6652C9-CB70-488B-83F7-4602CEEB00DD}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="255" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="107">
   <si>
     <t>Section Data Type</t>
   </si>
@@ -721,10 +721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z25"/>
+  <dimension ref="A1:Z20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,42 +834,6 @@
       <c r="I2" t="s">
         <v>46</v>
       </c>
-      <c r="J2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R2" t="s">
-        <v>30</v>
-      </c>
-      <c r="S2" t="s">
-        <v>30</v>
-      </c>
-      <c r="T2" t="s">
-        <v>30</v>
-      </c>
-      <c r="U2" t="s">
-        <v>30</v>
-      </c>
-      <c r="V2" t="s">
-        <v>30</v>
-      </c>
-      <c r="W2" t="s">
-        <v>27</v>
-      </c>
-      <c r="X2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -899,54 +863,6 @@
       <c r="I3" t="s">
         <v>30</v>
       </c>
-      <c r="J3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" t="s">
-        <v>30</v>
-      </c>
-      <c r="P3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>30</v>
-      </c>
-      <c r="R3" t="s">
-        <v>30</v>
-      </c>
-      <c r="S3" t="s">
-        <v>30</v>
-      </c>
-      <c r="T3" t="s">
-        <v>30</v>
-      </c>
-      <c r="U3" t="s">
-        <v>30</v>
-      </c>
-      <c r="V3" t="s">
-        <v>30</v>
-      </c>
-      <c r="W3" t="s">
-        <v>27</v>
-      </c>
-      <c r="X3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -970,9 +886,6 @@
       <c r="I4" t="s">
         <v>36</v>
       </c>
-      <c r="W4" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -996,9 +909,6 @@
       <c r="I5" t="s">
         <v>41</v>
       </c>
-      <c r="W5" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1028,22 +938,22 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
         <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="I7" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
@@ -1051,28 +961,22 @@
         <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="E8" t="s">
         <v>26</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="I8" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
@@ -1080,22 +984,22 @@
         <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
         <v>26</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="I9" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
@@ -1103,22 +1007,22 @@
         <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
         <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I10" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
@@ -1126,22 +1030,22 @@
         <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E11" t="s">
         <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="G11" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="I11" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
@@ -1149,22 +1053,22 @@
         <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="E12" t="s">
         <v>26</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="G12" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="I12" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
@@ -1172,22 +1076,22 @@
         <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="E13" t="s">
         <v>26</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="G13" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="I13" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
@@ -1195,22 +1099,22 @@
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="E14" t="s">
         <v>26</v>
       </c>
       <c r="F14" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="G14" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="I14" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
@@ -1218,22 +1122,22 @@
         <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="E15" t="s">
         <v>26</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="I15" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
@@ -1241,22 +1145,22 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="E16" t="s">
         <v>26</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="G16" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="I16" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1264,22 +1168,22 @@
         <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="E17" t="s">
         <v>26</v>
       </c>
       <c r="F17" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="G17" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="I17" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1287,22 +1191,22 @@
         <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="E18" t="s">
         <v>26</v>
       </c>
       <c r="F18" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G18" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="I18" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1310,22 +1214,22 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="C19" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="E19" t="s">
         <v>26</v>
       </c>
       <c r="F19" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G19" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="I19" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1333,136 +1237,21 @@
         <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="C20" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E20" t="s">
         <v>26</v>
       </c>
       <c r="F20" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="G20" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="I20" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" t="s">
-        <v>91</v>
-      </c>
-      <c r="C21" t="s">
-        <v>87</v>
-      </c>
-      <c r="E21" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" t="s">
-        <v>88</v>
-      </c>
-      <c r="G21" t="s">
-        <v>89</v>
-      </c>
-      <c r="I21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" t="s">
-        <v>93</v>
-      </c>
-      <c r="C22" t="s">
-        <v>94</v>
-      </c>
-      <c r="E22" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" t="s">
-        <v>88</v>
-      </c>
-      <c r="G22" t="s">
-        <v>89</v>
-      </c>
-      <c r="I22" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" t="s">
-        <v>96</v>
-      </c>
-      <c r="C23" t="s">
-        <v>97</v>
-      </c>
-      <c r="E23" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23" t="s">
-        <v>88</v>
-      </c>
-      <c r="G23" t="s">
-        <v>89</v>
-      </c>
-      <c r="I23" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" t="s">
-        <v>99</v>
-      </c>
-      <c r="C24" t="s">
-        <v>100</v>
-      </c>
-      <c r="E24" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" t="s">
-        <v>88</v>
-      </c>
-      <c r="G24" t="s">
-        <v>101</v>
-      </c>
-      <c r="I24" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" t="s">
-        <v>103</v>
-      </c>
-      <c r="C25" t="s">
-        <v>94</v>
-      </c>
-      <c r="E25" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25" t="s">
-        <v>104</v>
-      </c>
-      <c r="G25" t="s">
-        <v>105</v>
-      </c>
-      <c r="I25" t="s">
         <v>106</v>
       </c>
     </row>
